--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -814,7 +814,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,10 +881,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1161,10 +1157,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,7 +1206,7 @@
       </c>
       <c r="H2" s="8" t="n">
         <f aca="false">COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="H4" s="12" t="n">
         <f aca="false">COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1269,7 @@
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,7 +1542,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2200,7 @@
         <v>150</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,7 +2214,7 @@
         <v>152</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2228,7 @@
         <v>154</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2242,7 @@
         <v>156</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2256,7 @@
         <v>158</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,9 +2552,6 @@
       <c r="D96" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C97" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A97:A1000 A2:D95 B98:D1000">

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -1159,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F74" activeCellId="0" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -1159,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F74" activeCellId="0" sqref="F74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H4" s="12" t="n">
         <f aca="false">COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,7 +2284,7 @@
         <v>162</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC5933F-9FEA-4273-B8C3-54C6761EC201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFD362-B897-4573-BEA4-9098EDD2CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2268,7 @@
       <c r="B78" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="16" t="s">
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -2528,7 +2528,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A97:A1000 B98:D1000 A2:D95">
+  <conditionalFormatting sqref="A2:D95 A97:A1000 B98:D1000">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D2="Page Unresponsive"</formula>
     </cfRule>

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFD362-B897-4573-BEA4-9098EDD2CAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCDBB5E-582B-4CC4-B5F4-D43B503B01DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,7 +2272,7 @@
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCDBB5E-582B-4CC4-B5F4-D43B503B01DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D5E2D-D14A-4096-8F7B-057C9D18B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
       <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2366,11 +2366,11 @@
       <c r="B85" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="16" t="s">
         <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
       <c r="B87" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29304"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D5E2D-D14A-4096-8F7B-057C9D18B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F230D-6300-4BC2-BDA3-09AC61A63524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="H4" s="11">
         <f>COUNTIF(D1:D1000, "COMPLETED")</f>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,11 +2408,11 @@
       <c r="B88" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,11 +2422,11 @@
       <c r="B89" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,11 +2436,11 @@
       <c r="B90" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/Sources(AutoRecovered).xlsx
+++ b/assets/Sources(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HVAC_News_Scraper\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F230D-6300-4BC2-BDA3-09AC61A63524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA65E8-CF6F-4246-BECE-9B42891EC36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="202">
   <si>
     <t>Type</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>https://www.heatpumps.org.uk/news-events/</t>
+  </si>
+  <si>
+    <t>no definite dates</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1183,7 @@
       </c>
       <c r="H2" s="7">
         <f>COUNTIF(D1:D1000, "WITH ISSUES")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1246,7 @@
       </c>
       <c r="H5" s="13">
         <f>COUNTIF(D1:D1000, "NOT YET COMPLETED")</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2303,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>140</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>140</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>140</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>140</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>140</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>140</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>140</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>140</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>140</v>
       </c>
@@ -2443,21 +2446,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>140</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>140</v>
       </c>
